--- a/Test/Template_1.xlsx
+++ b/Test/Template_1.xlsx
@@ -1,75 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\ExcelAPI\Test\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E70A784F-E4E0-4735-896C-5F03B1D49FDC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14160" xr2:uid="{3FB792A7-62AB-4FB0-96ED-45B57944A6CF}"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="14160" windowWidth="25820" xWindow="-110" yWindow="-110"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Age</t>
-  </si>
-  <si>
-    <t>Address</t>
-  </si>
-  <si>
-    <t>Coding</t>
-  </si>
-  <si>
-    <t>Start Date</t>
-  </si>
-  <si>
-    <t>End Date</t>
-  </si>
-  <si>
-    <t>Testing</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -81,7 +39,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -104,30 +62,92 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="8">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="1" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf borderId="3" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="2" fillId="0" fontId="0" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -427,49 +447,407 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{574F7671-474D-4208-B62A-A00F638E138D}">
-  <dimension ref="A1:G2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E3" sqref="E3:E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
+  <cols>
+    <col bestFit="1" customWidth="1" max="7" min="4" style="7" width="10.453125"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>5</v>
+    <row r="1">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Address</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Coding</t>
+        </is>
+      </c>
+      <c r="E1" s="4" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Testing</t>
+        </is>
+      </c>
+      <c r="G1" s="4" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="5" t="n"/>
+      <c r="B2" s="5" t="n"/>
+      <c r="C2" s="5" t="n"/>
+      <c r="D2" s="1" t="inlineStr">
+        <is>
+          <t>Start Date</t>
+        </is>
+      </c>
+      <c r="E2" s="1" t="inlineStr">
+        <is>
+          <t>End Date</t>
+        </is>
+      </c>
+      <c r="F2" s="1" t="inlineStr">
+        <is>
+          <t>Start Date</t>
+        </is>
+      </c>
+      <c r="G2" s="1" t="inlineStr">
+        <is>
+          <t>End Date</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Person1</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Zone1</t>
+        </is>
+      </c>
+      <c r="D3" s="6" t="inlineStr">
+        <is>
+          <t>10/11</t>
+        </is>
+      </c>
+      <c r="E3" s="6" t="inlineStr">
+        <is>
+          <t>10/21</t>
+        </is>
+      </c>
+      <c r="F3" s="2" t="inlineStr">
+        <is>
+          <t>11/11</t>
+        </is>
+      </c>
+      <c r="G3" s="2" t="inlineStr">
+        <is>
+          <t>11/21</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Person2</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Zone2</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>10/12</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>10/22</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>11/12</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>11/22</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Person3</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Zone3</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10/13</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>10/23</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>11/13</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>11/23</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Person4</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Zone4</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>10/14</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>10/24</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>11/14</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>11/24</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Person5</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Zone5</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>10/15</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>10/25</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>11/15</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>11/25</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Person6</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Zone6</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>10/16</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>10/26</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>11/16</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>11/26</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Person7</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Zone7</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>10/17</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>10/27</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>11/17</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>11/27</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Person8</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Zone8</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>10/18</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>10/28</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>11/18</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>11/28</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Person9</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Zone9</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>10/19</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>10/29</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>11/19</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>11/29</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -480,6 +858,6 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/Test/Template_1.xlsx
+++ b/Test/Template_1.xlsx
@@ -452,7 +452,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E3" sqref="E3:E4"/>
@@ -850,6 +850,7 @@
         </is>
       </c>
     </row>
+    <row r="12"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="D1:E1"/>
